--- a/ResultadoEleicoesDistritos/FARO_ALCOUTIM.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_ALCOUTIM.xlsx
@@ -597,61 +597,61 @@
         <v>663</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
         <v>4</v>
